--- a/ALS_data/plots/als_logger.xlsx
+++ b/ALS_data/plots/als_logger.xlsx
@@ -10,7 +10,7 @@
     <s:sheet name="covariance" sheetId="2" r:id="rId2"/>
     <s:sheet name="pearson-correlation" sheetId="3" r:id="rId3"/>
     <s:sheet name="spearman-correlation" sheetId="4" r:id="rId4"/>
-    <s:sheet name="percent_change" sheetId="5" r:id="rId5"/>
+    <s:sheet name="percent-change" sheetId="5" r:id="rId5"/>
     <s:sheet name="runtime vs total_male_female" sheetId="6" r:id="rId6"/>
     <s:sheet name="runtime vs total_copy_dna_num" sheetId="7" r:id="rId7"/>
     <s:sheet name="runtime vs copy_dna_num" sheetId="8" r:id="rId8"/>

--- a/ALS_data/plots/als_logger.xlsx
+++ b/ALS_data/plots/als_logger.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="description" sheetId="1" r:id="rId1"/>
-    <s:sheet name="covariance" sheetId="2" r:id="rId2"/>
-    <s:sheet name="pearson-correlation" sheetId="3" r:id="rId3"/>
-    <s:sheet name="spearman-correlation" sheetId="4" r:id="rId4"/>
-    <s:sheet name="percent-change" sheetId="5" r:id="rId5"/>
-    <s:sheet name="runtime vs total_male_female" sheetId="6" r:id="rId6"/>
-    <s:sheet name="runtime vs total_copy_dna_num" sheetId="7" r:id="rId7"/>
-    <s:sheet name="runtime vs copy_dna_num" sheetId="8" r:id="rId8"/>
-    <s:sheet name="runtime vs time" sheetId="9" r:id="rId9"/>
-    <s:sheet name="runtime vs latest_gen_time" sheetId="10" r:id="rId10"/>
-    <s:sheet name="runtime vs latest_gen" sheetId="11" r:id="rId11"/>
-    <s:sheet name="runtime vs total_thread" sheetId="12" r:id="rId12"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+  </bookViews>
+  <sheets>
+    <sheet name="description" sheetId="1" r:id="rId1"/>
+    <sheet name="covariance" sheetId="2" r:id="rId2"/>
+    <sheet name="pearson-correlation" sheetId="3" r:id="rId3"/>
+    <sheet name="spearman-correlation" sheetId="4" r:id="rId4"/>
+    <sheet name="percent-change" sheetId="5" r:id="rId5"/>
+    <sheet name="runtime vs total_male_female" sheetId="6" r:id="rId6"/>
+    <sheet name="runtime vs total_copy_dna_num" sheetId="7" r:id="rId7"/>
+    <sheet name="runtime vs copy_dna_num" sheetId="8" r:id="rId8"/>
+    <sheet name="runtime vs time" sheetId="9" r:id="rId9"/>
+    <sheet name="runtime vs latest_gen_time" sheetId="10" r:id="rId10"/>
+    <sheet name="runtime vs latest_gen" sheetId="11" r:id="rId11"/>
+    <sheet name="runtime vs total_thread" sheetId="12" r:id="rId12"/>
+  </sheets>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="16">
   <si>
     <t>number_of_run</t>
   </si>
@@ -79,26 +79,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -113,27 +113,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -421,18 +429,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
@@ -461,25 +463,25 @@
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>18</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>18</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>18</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>18</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>18</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>18</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>18</v>
       </c>
     </row>
@@ -487,77 +489,77 @@
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>8.5</v>
       </c>
-      <c r="C3" t="n">
-        <v>5778888976696.777</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4268.777777777777</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4783.444444444444</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="C3">
+        <v>5778888976696.78</v>
+      </c>
+      <c r="D3">
+        <v>4268.77777777778</v>
+      </c>
+      <c r="E3">
+        <v>4783.44444444444</v>
+      </c>
+      <c r="F3">
         <v>2372</v>
       </c>
-      <c r="G3" t="n">
-        <v>2384.111111111111</v>
-      </c>
-      <c r="H3" t="n">
-        <v>238.1111111111111</v>
+      <c r="G3">
+        <v>2384.11111111111</v>
+      </c>
+      <c r="H3">
+        <v>238.111111111111</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="n">
-        <v>5.338539126015656</v>
-      </c>
-      <c r="C4" t="n">
-        <v>8943615509038.211</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4040.465895610897</v>
-      </c>
-      <c r="E4" t="n">
-        <v>4305.743554318528</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2127.322675267173</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2143.010743265566</v>
-      </c>
-      <c r="H4" t="n">
-        <v>222.7419738803277</v>
+      <c r="B4">
+        <v>5.33853912601566</v>
+      </c>
+      <c r="C4">
+        <v>8943615509038.21</v>
+      </c>
+      <c r="D4">
+        <v>4040.4658956109</v>
+      </c>
+      <c r="E4">
+        <v>4305.74355431853</v>
+      </c>
+      <c r="F4">
+        <v>2127.32267526717</v>
+      </c>
+      <c r="G4">
+        <v>2143.01074326557</v>
+      </c>
+      <c r="H4">
+        <v>222.741973880328</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>0</v>
       </c>
     </row>
@@ -565,25 +567,25 @@
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>4.25</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>597313677634</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>97</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>412.5</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>205.5</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>207</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>27.25</v>
       </c>
     </row>
@@ -591,25 +593,25 @@
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>8.5</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>3045394030381</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>3883.5</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>4699</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>2344.5</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>2335</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>238.5</v>
       </c>
     </row>
@@ -617,25 +619,25 @@
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>12.75</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>4754929281876.75</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>8937.5</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>10036.5</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>4958.25</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>4988.5</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>330.5</v>
       </c>
     </row>
@@ -643,46 +645,40 @@
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>17</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>32968739208885</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>9564</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>10156</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>5017</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>5039</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>728</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -696,221 +692,215 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>265</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>13445002630549</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>216</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>23645889876530</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>394</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>3494286265286</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>335</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>32968739208885</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>37</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>588656179206</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>10</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>244528212683</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>193</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>2596501795476</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>645</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>4584382941534</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>18</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>191419389882</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>263</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>1963733742521</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>317</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>4811778061991</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>261</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>4384449738702</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>501</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>3964969554468</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>24</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>198713778135</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>7</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>773337051788</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>728</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>5540326979988</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>72</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>623286172918</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -921,167 +911,161 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>645</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>501</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>728</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>72</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -1092,167 +1076,161 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>4715</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>2741</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>10072</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>10080</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>540</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>4705</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>10038</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>10084</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>4693</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>10156</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>6524</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>10032</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>880</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
@@ -1281,202 +1259,196 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>28.5</v>
       </c>
-      <c r="C2" t="n">
-        <v>-19396680715775.71</v>
-      </c>
-      <c r="D2" t="n">
-        <v>304.4705882352941</v>
-      </c>
-      <c r="E2" t="n">
-        <v>485.5882352941181</v>
-      </c>
-      <c r="F2" t="n">
-        <v>239.5882352941177</v>
-      </c>
-      <c r="G2" t="n">
-        <v>237.3529411764706</v>
-      </c>
-      <c r="H2" t="n">
-        <v>163.5882352941177</v>
+      <c r="C2">
+        <v>-19396680715775.7</v>
+      </c>
+      <c r="D2">
+        <v>304.470588235293</v>
+      </c>
+      <c r="E2">
+        <v>485.588235294118</v>
+      </c>
+      <c r="F2">
+        <v>239.588235294118</v>
+      </c>
+      <c r="G2">
+        <v>237.352941176471</v>
+      </c>
+      <c r="H2">
+        <v>163.588235294118</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>-19396680715775.71</v>
-      </c>
-      <c r="C3" t="n">
-        <v>7.998825837350881e+25</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.308683657359023e+16</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.328542798545564e+16</v>
-      </c>
-      <c r="F3" t="n">
-        <v>6563487828544224</v>
-      </c>
-      <c r="G3" t="n">
-        <v>6633059052534450</v>
-      </c>
-      <c r="H3" t="n">
-        <v>533536648108078.5</v>
+      <c r="B3">
+        <v>-19396680715775.7</v>
+      </c>
+      <c r="C3">
+        <v>7.99882583735088e+25</v>
+      </c>
+      <c r="D3">
+        <v>1.30868365735902e+16</v>
+      </c>
+      <c r="E3">
+        <v>1.32854279854556e+16</v>
+      </c>
+      <c r="F3">
+        <v>6.56348782854422e+15</v>
+      </c>
+      <c r="G3">
+        <v>6.63305905253445e+15</v>
+      </c>
+      <c r="H3">
+        <v>533536648108079</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>304.4705882352941</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.308683657359023e+16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16325364.65359477</v>
-      </c>
-      <c r="E4" t="n">
-        <v>17362040.33986928</v>
-      </c>
-      <c r="F4" t="n">
-        <v>8578133.882352939</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8642226.673202615</v>
-      </c>
-      <c r="H4" t="n">
-        <v>764348.7908496733</v>
+      <c r="B4">
+        <v>304.470588235293</v>
+      </c>
+      <c r="C4">
+        <v>1.30868365735902e+16</v>
+      </c>
+      <c r="D4">
+        <v>16325364.6535948</v>
+      </c>
+      <c r="E4">
+        <v>17362040.3398693</v>
+      </c>
+      <c r="F4">
+        <v>8578133.88235294</v>
+      </c>
+      <c r="G4">
+        <v>8642226.67320262</v>
+      </c>
+      <c r="H4">
+        <v>764348.790849673</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>485.5882352941181</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.328542798545564e+16</v>
-      </c>
-      <c r="D5" t="n">
-        <v>17362040.33986928</v>
-      </c>
-      <c r="E5" t="n">
-        <v>18539427.55555555</v>
-      </c>
-      <c r="F5" t="n">
-        <v>9158990.058823528</v>
-      </c>
-      <c r="G5" t="n">
-        <v>9226655.183006534</v>
-      </c>
-      <c r="H5" t="n">
-        <v>795702.1830065359</v>
+      <c r="B5">
+        <v>485.588235294118</v>
+      </c>
+      <c r="C5">
+        <v>1.32854279854556e+16</v>
+      </c>
+      <c r="D5">
+        <v>17362040.3398693</v>
+      </c>
+      <c r="E5">
+        <v>18539427.5555556</v>
+      </c>
+      <c r="F5">
+        <v>9158990.05882353</v>
+      </c>
+      <c r="G5">
+        <v>9226655.18300654</v>
+      </c>
+      <c r="H5">
+        <v>795702.183006536</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>239.5882352941177</v>
-      </c>
-      <c r="C6" t="n">
-        <v>6563487828544224</v>
-      </c>
-      <c r="D6" t="n">
-        <v>8578133.882352939</v>
-      </c>
-      <c r="E6" t="n">
-        <v>9158990.058823528</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4525501.764705882</v>
-      </c>
-      <c r="G6" t="n">
-        <v>4558014.411764706</v>
-      </c>
-      <c r="H6" t="n">
-        <v>394195.7647058824</v>
+      <c r="B6">
+        <v>239.588235294118</v>
+      </c>
+      <c r="C6">
+        <v>6.56348782854422e+15</v>
+      </c>
+      <c r="D6">
+        <v>8578133.88235294</v>
+      </c>
+      <c r="E6">
+        <v>9158990.05882353</v>
+      </c>
+      <c r="F6">
+        <v>4525501.76470588</v>
+      </c>
+      <c r="G6">
+        <v>4558014.41176471</v>
+      </c>
+      <c r="H6">
+        <v>394195.764705882</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>237.3529411764706</v>
-      </c>
-      <c r="C7" t="n">
-        <v>6633059052534450</v>
-      </c>
-      <c r="D7" t="n">
-        <v>8642226.673202615</v>
-      </c>
-      <c r="E7" t="n">
-        <v>9226655.183006534</v>
-      </c>
-      <c r="F7" t="n">
-        <v>4558014.411764706</v>
-      </c>
-      <c r="G7" t="n">
-        <v>4592495.045751634</v>
-      </c>
-      <c r="H7" t="n">
-        <v>397873.3986928104</v>
+      <c r="B7">
+        <v>237.352941176471</v>
+      </c>
+      <c r="C7">
+        <v>6.63305905253445e+15</v>
+      </c>
+      <c r="D7">
+        <v>8642226.67320262</v>
+      </c>
+      <c r="E7">
+        <v>9226655.18300654</v>
+      </c>
+      <c r="F7">
+        <v>4558014.41176471</v>
+      </c>
+      <c r="G7">
+        <v>4592495.04575163</v>
+      </c>
+      <c r="H7">
+        <v>397873.39869281</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>163.5882352941177</v>
-      </c>
-      <c r="C8" t="n">
-        <v>533536648108078.5</v>
-      </c>
-      <c r="D8" t="n">
-        <v>764348.7908496733</v>
-      </c>
-      <c r="E8" t="n">
-        <v>795702.1830065359</v>
-      </c>
-      <c r="F8" t="n">
-        <v>394195.7647058824</v>
-      </c>
-      <c r="G8" t="n">
-        <v>397873.3986928104</v>
-      </c>
-      <c r="H8" t="n">
-        <v>49613.98692810458</v>
+      <c r="B8">
+        <v>163.588235294118</v>
+      </c>
+      <c r="C8">
+        <v>533536648108079</v>
+      </c>
+      <c r="D8">
+        <v>764348.790849673</v>
+      </c>
+      <c r="E8">
+        <v>795702.183006536</v>
+      </c>
+      <c r="F8">
+        <v>394195.764705882</v>
+      </c>
+      <c r="G8">
+        <v>397873.39869281</v>
+      </c>
+      <c r="H8">
+        <v>49613.9869281046</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
@@ -1505,202 +1477,196 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-0.4062485899984627</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.01411534413864882</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.02112504127150437</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.02109646499868056</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.02074664326734257</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.1375712152038983</v>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>-0.406248589998463</v>
+      </c>
+      <c r="D2">
+        <v>0.0141153441386488</v>
+      </c>
+      <c r="E2">
+        <v>0.0211250412715044</v>
+      </c>
+      <c r="F2">
+        <v>0.0210964649986806</v>
+      </c>
+      <c r="G2">
+        <v>0.0207466432673426</v>
+      </c>
+      <c r="H2">
+        <v>0.137571215203898</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>-0.4062485899984627</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.3621513540234325</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.3449961663159332</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.3449754537414763</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.3460799147489581</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.2678237408042443</v>
+      <c r="B3">
+        <v>-0.406248589998463</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.362151354023433</v>
+      </c>
+      <c r="E3">
+        <v>0.344996166315933</v>
+      </c>
+      <c r="F3">
+        <v>0.344975453741476</v>
+      </c>
+      <c r="G3">
+        <v>0.346079914748958</v>
+      </c>
+      <c r="H3">
+        <v>0.267823740804244</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>0.01411534413864882</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3621513540234325</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.9979784317928835</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.9979941728442684</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.9980903564240008</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.8492940344954001</v>
+      <c r="B4">
+        <v>0.0141153441386488</v>
+      </c>
+      <c r="C4">
+        <v>0.362151354023433</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0.997978431792883</v>
+      </c>
+      <c r="F4">
+        <v>0.997994172844268</v>
+      </c>
+      <c r="G4">
+        <v>0.998090356424001</v>
+      </c>
+      <c r="H4">
+        <v>0.8492940344954</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>0.02112504127150437</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3449961663159332</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9979784317928835</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.9999218492196363</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.9999350281677082</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.8296603310982037</v>
+      <c r="B5">
+        <v>0.0211250412715044</v>
+      </c>
+      <c r="C5">
+        <v>0.344996166315933</v>
+      </c>
+      <c r="D5">
+        <v>0.997978431792883</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.999921849219636</v>
+      </c>
+      <c r="G5">
+        <v>0.999935028167708</v>
+      </c>
+      <c r="H5">
+        <v>0.829660331098204</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>0.02109646499868056</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.3449754537414763</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.9979941728442684</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.9999218492196363</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.9998111517293922</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.8319103368163198</v>
+      <c r="B6">
+        <v>0.0210964649986806</v>
+      </c>
+      <c r="C6">
+        <v>0.344975453741476</v>
+      </c>
+      <c r="D6">
+        <v>0.997994172844268</v>
+      </c>
+      <c r="E6">
+        <v>0.999921849219636</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.999811151729392</v>
+      </c>
+      <c r="H6">
+        <v>0.83191033681632</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>0.02074664326734257</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.3460799147489581</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.9980903564240008</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.9999350281677082</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.9998111517293922</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.8335247339200302</v>
+      <c r="B7">
+        <v>0.0207466432673426</v>
+      </c>
+      <c r="C7">
+        <v>0.346079914748958</v>
+      </c>
+      <c r="D7">
+        <v>0.998090356424001</v>
+      </c>
+      <c r="E7">
+        <v>0.999935028167708</v>
+      </c>
+      <c r="F7">
+        <v>0.999811151729392</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0.83352473392003</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>0.1375712152038983</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2678237408042443</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.8492940344954001</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.8296603310982037</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.8319103368163198</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.8335247339200302</v>
-      </c>
-      <c r="H8" t="n">
+      <c r="B8">
+        <v>0.137571215203898</v>
+      </c>
+      <c r="C8">
+        <v>0.267823740804244</v>
+      </c>
+      <c r="D8">
+        <v>0.8492940344954</v>
+      </c>
+      <c r="E8">
+        <v>0.829660331098204</v>
+      </c>
+      <c r="F8">
+        <v>0.83191033681632</v>
+      </c>
+      <c r="G8">
+        <v>0.83352473392003</v>
+      </c>
+      <c r="H8">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
@@ -1729,202 +1695,196 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-0.1186790505675955</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.06501547987616099</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.02373581011351909</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-0.01547987616099071</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>-0.118679050567595</v>
+      </c>
+      <c r="D2">
+        <v>0.065015479876161</v>
+      </c>
+      <c r="E2">
+        <v>0.0237358101135191</v>
+      </c>
+      <c r="F2">
+        <v>-0.0154798761609907</v>
+      </c>
+      <c r="G2">
         <v>0.131062951496388</v>
       </c>
-      <c r="H2" t="n">
-        <v>0.08565531475748193</v>
+      <c r="H2">
+        <v>0.0856553147574819</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>-0.1186790505675955</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.7481940144478845</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.6676986584107327</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.6821465428276574</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.6904024767801857</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.7708978328173375</v>
+      <c r="B3">
+        <v>-0.118679050567595</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.748194014447884</v>
+      </c>
+      <c r="E3">
+        <v>0.667698658410733</v>
+      </c>
+      <c r="F3">
+        <v>0.682146542827657</v>
+      </c>
+      <c r="G3">
+        <v>0.690402476780186</v>
+      </c>
+      <c r="H3">
+        <v>0.770897832817337</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>0.06501547987616099</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.7481940144478845</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.9298245614035088</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.9422084623323014</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="B4">
+        <v>0.065015479876161</v>
+      </c>
+      <c r="C4">
+        <v>0.748194014447884</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0.929824561403509</v>
+      </c>
+      <c r="F4">
+        <v>0.942208462332301</v>
+      </c>
+      <c r="G4">
         <v>0.977296181630547</v>
       </c>
-      <c r="H4" t="n">
-        <v>0.9442724458204335</v>
+      <c r="H4">
+        <v>0.944272445820433</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>0.02373581011351909</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.6676986584107327</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9298245614035088</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.9731682146542827</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.9463364293085655</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.8163054695562435</v>
+      <c r="B5">
+        <v>0.0237358101135191</v>
+      </c>
+      <c r="C5">
+        <v>0.667698658410733</v>
+      </c>
+      <c r="D5">
+        <v>0.929824561403509</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.973168214654283</v>
+      </c>
+      <c r="G5">
+        <v>0.946336429308566</v>
+      </c>
+      <c r="H5">
+        <v>0.816305469556244</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>-0.01547987616099071</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.6821465428276574</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.9422084623323014</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.9731682146542827</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.9195046439628483</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.8658410732714138</v>
+      <c r="B6">
+        <v>-0.0154798761609907</v>
+      </c>
+      <c r="C6">
+        <v>0.682146542827657</v>
+      </c>
+      <c r="D6">
+        <v>0.942208462332301</v>
+      </c>
+      <c r="E6">
+        <v>0.973168214654283</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.919504643962848</v>
+      </c>
+      <c r="H6">
+        <v>0.865841073271414</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>0.131062951496388</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.6904024767801857</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="C7">
+        <v>0.690402476780186</v>
+      </c>
+      <c r="D7">
         <v>0.977296181630547</v>
       </c>
-      <c r="E7" t="n">
-        <v>0.9463364293085655</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.9195046439628483</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.8926728586171311</v>
+      <c r="E7">
+        <v>0.946336429308566</v>
+      </c>
+      <c r="F7">
+        <v>0.919504643962848</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0.892672858617131</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>0.08565531475748193</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.7708978328173375</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.9442724458204335</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.8163054695562435</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.8658410732714138</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.8926728586171311</v>
-      </c>
-      <c r="H8" t="n">
+      <c r="B8">
+        <v>0.0856553147574819</v>
+      </c>
+      <c r="C8">
+        <v>0.770897832817337</v>
+      </c>
+      <c r="D8">
+        <v>0.944272445820433</v>
+      </c>
+      <c r="E8">
+        <v>0.816305469556244</v>
+      </c>
+      <c r="F8">
+        <v>0.865841073271414</v>
+      </c>
+      <c r="G8">
+        <v>0.892672858617131</v>
+      </c>
+      <c r="H8">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
@@ -1950,19 +1910,12 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
-      <c r="D2" t="s"/>
-      <c r="E2" t="s"/>
-      <c r="F2" t="s"/>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -1988,439 +1941,433 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.7587121792600546</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-0.4342350746268657</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-0.4186638388123012</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-0.4349489795918368</v>
-      </c>
-      <c r="G4" t="n">
-        <v>-0.4024545069826492</v>
-      </c>
-      <c r="H4" t="n">
-        <v>-0.1849056603773584</v>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0.758712179260055</v>
+      </c>
+      <c r="D4">
+        <v>-0.434235074626866</v>
+      </c>
+      <c r="E4">
+        <v>-0.418663838812301</v>
+      </c>
+      <c r="F4">
+        <v>-0.434948979591837</v>
+      </c>
+      <c r="G4">
+        <v>-0.402454506982649</v>
+      </c>
+      <c r="H4">
+        <v>-0.184905660377358</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>0.5</v>
       </c>
-      <c r="C5" t="n">
-        <v>-0.8522243703437741</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.827287716405606</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2.674571324334185</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2.775018811136193</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2.525495750708215</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.8240740740740742</v>
+      <c r="C5">
+        <v>-0.852224370343774</v>
+      </c>
+      <c r="D5">
+        <v>2.82728771640561</v>
+      </c>
+      <c r="E5">
+        <v>2.67457132433418</v>
+      </c>
+      <c r="F5">
+        <v>2.77501881113619</v>
+      </c>
+      <c r="G5">
+        <v>2.52549575070822</v>
+      </c>
+      <c r="H5">
+        <v>0.824074074074074</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C6" t="n">
-        <v>8.435042439542823</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.02046311254711908</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="B6">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="C6">
+        <v>8.43504243954282</v>
+      </c>
+      <c r="D6">
+        <v>0.0204631125471191</v>
+      </c>
+      <c r="E6">
         <v>0.000794281175536149</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>-0.00279051225832172</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>0.00281237444756921</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>-0.149746192893401</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>0.25</v>
       </c>
-      <c r="C7" t="n">
-        <v>-0.9821450199998137</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-0.9783641160949869</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-0.9464285714285714</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-0.9454327403557865</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-0.9465144230769231</v>
-      </c>
-      <c r="H7" t="n">
-        <v>-0.8895522388059701</v>
+      <c r="C7">
+        <v>-0.982145019999814</v>
+      </c>
+      <c r="D7">
+        <v>-0.978364116094987</v>
+      </c>
+      <c r="E7">
+        <v>-0.946428571428571</v>
+      </c>
+      <c r="F7">
+        <v>-0.945432740355787</v>
+      </c>
+      <c r="G7">
+        <v>-0.946514423076923</v>
+      </c>
+      <c r="H7">
+        <v>-0.88955223880597</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>0.2</v>
       </c>
-      <c r="C8" t="n">
-        <v>-0.5845992596003524</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-0.9365853658536585</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-0.7166666666666667</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="C8">
+        <v>-0.584599259600352</v>
+      </c>
+      <c r="D8">
+        <v>-0.936585365853658</v>
+      </c>
+      <c r="E8">
+        <v>-0.716666666666667</v>
+      </c>
+      <c r="F8">
         <v>-0.728937728937729</v>
       </c>
-      <c r="G8" t="n">
-        <v>-0.7041198501872659</v>
-      </c>
-      <c r="H8" t="n">
-        <v>-0.7297297297297297</v>
+      <c r="G8">
+        <v>-0.704119850187266</v>
+      </c>
+      <c r="H8">
+        <v>-0.72972972972973</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="C9" t="n">
-        <v>9.618413993979653</v>
-      </c>
-      <c r="D9" t="n">
-        <v>284.6923076923077</v>
-      </c>
-      <c r="E9" t="n">
-        <v>29.75163398692811</v>
-      </c>
-      <c r="F9" t="n">
-        <v>30.58108108108108</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="B9">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="C9">
+        <v>9.61841399397965</v>
+      </c>
+      <c r="D9">
+        <v>284.692307692308</v>
+      </c>
+      <c r="E9">
+        <v>29.7516339869281</v>
+      </c>
+      <c r="F9">
+        <v>30.5810810810811</v>
+      </c>
+      <c r="G9">
         <v>28.9746835443038</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>18.3</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.7655997579210509</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.572159396876683</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1.133475026567481</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.121951219512195</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.126689189189189</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2.341968911917098</v>
+      <c r="B10">
+        <v>0.142857142857143</v>
+      </c>
+      <c r="C10">
+        <v>0.765599757921051</v>
+      </c>
+      <c r="D10">
+        <v>1.57215939687668</v>
+      </c>
+      <c r="E10">
+        <v>1.13347502656748</v>
+      </c>
+      <c r="F10">
+        <v>1.1219512195122</v>
+      </c>
+      <c r="G10">
+        <v>1.12668918918919</v>
+      </c>
+      <c r="H10">
+        <v>2.3419689119171</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>0.125</v>
       </c>
-      <c r="C11" t="n">
-        <v>-0.9582453315259156</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-0.9936145713388465</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-0.9631400677425782</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-0.9630973986690865</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-0.9628673550436855</v>
-      </c>
-      <c r="H11" t="n">
-        <v>-0.9720930232558139</v>
+      <c r="C11">
+        <v>-0.958245331525916</v>
+      </c>
+      <c r="D11">
+        <v>-0.993614571338846</v>
+      </c>
+      <c r="E11">
+        <v>-0.963140067742578</v>
+      </c>
+      <c r="F11">
+        <v>-0.963097398669087</v>
+      </c>
+      <c r="G11">
+        <v>-0.962867355043685</v>
+      </c>
+      <c r="H11">
+        <v>-0.972093023255814</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
-        <v>0.1111111111111112</v>
-      </c>
-      <c r="C12" t="n">
-        <v>9.258802641318304</v>
-      </c>
-      <c r="D12" t="n">
-        <v>140.6229508196721</v>
-      </c>
-      <c r="E12" t="n">
-        <v>26.25405405405406</v>
-      </c>
-      <c r="F12" t="n">
-        <v>26.19125683060109</v>
-      </c>
-      <c r="G12" t="n">
-        <v>25.83957219251337</v>
-      </c>
-      <c r="H12" t="n">
-        <v>13.61111111111111</v>
+      <c r="B12">
+        <v>0.111111111111111</v>
+      </c>
+      <c r="C12">
+        <v>9.2588026413183</v>
+      </c>
+      <c r="D12">
+        <v>140.622950819672</v>
+      </c>
+      <c r="E12">
+        <v>26.2540540540541</v>
+      </c>
+      <c r="F12">
+        <v>26.1912568306011</v>
+      </c>
+      <c r="G12">
+        <v>25.8395721925134</v>
+      </c>
+      <c r="H12">
+        <v>13.6111111111111</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.450321017458172</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-0.5308484778330825</v>
-      </c>
-      <c r="E13" t="n">
+      <c r="B13">
+        <v>0.1</v>
+      </c>
+      <c r="C13">
+        <v>1.45032101745817</v>
+      </c>
+      <c r="D13">
+        <v>-0.530848477833083</v>
+      </c>
+      <c r="E13">
         <v>-0.53460928203094</v>
       </c>
-      <c r="F13" t="n">
-        <v>-0.5204983922829582</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-0.5403466826060968</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.2053231939163498</v>
+      <c r="F13">
+        <v>-0.520498392282958</v>
+      </c>
+      <c r="G13">
+        <v>-0.540346682606097</v>
+      </c>
+      <c r="H13">
+        <v>0.20532319391635</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
-        <v>0.09090909090909083</v>
-      </c>
-      <c r="C14" t="n">
+      <c r="B14">
+        <v>0.0909090909090908</v>
+      </c>
+      <c r="C14">
         <v>-0.088808818233853</v>
       </c>
-      <c r="D14" t="n">
-        <v>1.229706390328152</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1.164074152993821</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1.080050293378039</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1.181187689640225</v>
-      </c>
-      <c r="H14" t="n">
-        <v>-0.1766561514195584</v>
+      <c r="D14">
+        <v>1.22970639032815</v>
+      </c>
+      <c r="E14">
+        <v>1.16407415299382</v>
+      </c>
+      <c r="F14">
+        <v>1.08005029337804</v>
+      </c>
+      <c r="G14">
+        <v>1.18118768964023</v>
+      </c>
+      <c r="H14">
+        <v>-0.176656151419558</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
-        <v>0.08333333333333326</v>
-      </c>
-      <c r="C15" t="n">
-        <v>-0.09567453368918888</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-0.3386079451145292</v>
-      </c>
-      <c r="E15" t="n">
-        <v>-0.3576211106734934</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-0.3415273020350594</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-0.3529411764705882</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.9195402298850575</v>
+      <c r="B15">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="C15">
+        <v>-0.0956745336891889</v>
+      </c>
+      <c r="D15">
+        <v>-0.338607945114529</v>
+      </c>
+      <c r="E15">
+        <v>-0.357621110673493</v>
+      </c>
+      <c r="F15">
+        <v>-0.341527302035059</v>
+      </c>
+      <c r="G15">
+        <v>-0.352941176470588</v>
+      </c>
+      <c r="H15">
+        <v>0.919540229885057</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
-        <v>0.07692307692307687</v>
-      </c>
-      <c r="C16" t="n">
-        <v>-0.9498826471665903</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="B16">
+        <v>0.0769230769230769</v>
+      </c>
+      <c r="C16">
+        <v>-0.94988264716659</v>
+      </c>
+      <c r="D16">
         <v>-0.993307679437845</v>
       </c>
-      <c r="E16" t="n">
-        <v>-0.9690374003678724</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-0.9666462668298653</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-0.9714373464373465</v>
-      </c>
-      <c r="H16" t="n">
-        <v>-0.9520958083832335</v>
+      <c r="E16">
+        <v>-0.969037400367872</v>
+      </c>
+      <c r="F16">
+        <v>-0.966646266829865</v>
+      </c>
+      <c r="G16">
+        <v>-0.971437346437346</v>
+      </c>
+      <c r="H16">
+        <v>-0.952095808383233</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>0.0714285714285714</v>
       </c>
-      <c r="C17" t="n">
-        <v>2.891713292586177</v>
-      </c>
-      <c r="D17" t="n">
+      <c r="C17">
+        <v>2.89171329258618</v>
+      </c>
+      <c r="D17">
         <v>-0.9</v>
       </c>
-      <c r="E17" t="n">
-        <v>-0.4207920792079208</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-0.4220183486238532</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-0.4193548387096774</v>
-      </c>
-      <c r="H17" t="n">
-        <v>-0.7083333333333333</v>
+      <c r="E17">
+        <v>-0.420792079207921</v>
+      </c>
+      <c r="F17">
+        <v>-0.422018348623853</v>
+      </c>
+      <c r="G17">
+        <v>-0.419354838709677</v>
+      </c>
+      <c r="H17">
+        <v>-0.708333333333333</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
-        <v>0.06666666666666665</v>
-      </c>
-      <c r="C18" t="n">
-        <v>6.164181474530987</v>
-      </c>
-      <c r="D18" t="n">
+      <c r="B18">
+        <v>0.0666666666666667</v>
+      </c>
+      <c r="C18">
+        <v>6.16418147453099</v>
+      </c>
+      <c r="D18">
         <v>2390</v>
       </c>
-      <c r="E18" t="n">
-        <v>84.74358974358974</v>
-      </c>
-      <c r="F18" t="n">
-        <v>77.66666666666667</v>
-      </c>
-      <c r="G18" t="n">
-        <v>92.31481481481481</v>
-      </c>
-      <c r="H18" t="n">
+      <c r="E18">
+        <v>84.7435897435897</v>
+      </c>
+      <c r="F18">
+        <v>77.6666666666667</v>
+      </c>
+      <c r="G18">
+        <v>92.3148148148148</v>
+      </c>
+      <c r="H18">
         <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>0.0625</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>-0.887500110522475</v>
       </c>
-      <c r="D19" t="n">
-        <v>-0.9473023839397742</v>
-      </c>
-      <c r="E19" t="n">
-        <v>-0.9122807017543859</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-0.9096045197740112</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-0.9142687041079579</v>
-      </c>
-      <c r="H19" t="n">
-        <v>-0.9010989010989011</v>
+      <c r="D19">
+        <v>-0.947302383939774</v>
+      </c>
+      <c r="E19">
+        <v>-0.912280701754386</v>
+      </c>
+      <c r="F19">
+        <v>-0.909604519774011</v>
+      </c>
+      <c r="G19">
+        <v>-0.914268704107958</v>
+      </c>
+      <c r="H19">
+        <v>-0.901098901098901</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -2437,275 +2384,269 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>4715</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>2352</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>2363</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>2741</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>1329</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>1412</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>10072</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>5017</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>4978</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>10080</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>5003</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>4992</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>540</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>273</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>153</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>74</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>4705</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>2337</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>2368</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>10038</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>4959</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>5036</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>370</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>183</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>10084</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>4976</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>5019</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>4693</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>2386</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>2307</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>10156</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>4963</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>5032</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>6524</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>3268</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>3256</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>202</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>109</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>117</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>63</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>10032</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>4956</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>5039</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>880</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>448</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>432</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -2719,221 +2660,215 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>4288</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>4715</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>2426</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>2741</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>9285</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>10072</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>9475</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>10080</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>205</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>540</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>13</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>3714</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>4705</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>9553</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>10038</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>61</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>8639</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>10084</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>4053</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>4693</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>9037</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>10156</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>5977</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>6524</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>40</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>9564</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>10032</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>504</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>880</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -2944,167 +2879,161 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>4288</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>2426</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>9285</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>9475</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>3714</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>9553</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>8639</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>4053</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>9037</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>5977</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>9564</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>504</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -3115,150 +3044,150 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>13445002630549</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>23645889876530</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>3494286265286</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>32968739208885</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>588656179206</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>244528212683</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>2596501795476</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>4584382941534</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>191419389882</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>1963733742521</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>4811778061991</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>4384449738702</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>3964969554468</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>198713778135</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>773337051788</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>5540326979988</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>623286172918</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>